--- a/企画や仕様(統合用)/クモ仕様書(β用12月09日)AI修正.xlsx
+++ b/企画や仕様(統合用)/クモ仕様書(β用12月09日)AI修正.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="9" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="リザルト" sheetId="39" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="317">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -3146,28 +3145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・パターンは通常パターンに加えて、下の条件にあったらそれを加えて行動させる</t>
-    <rPh sb="6" eb="8">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">陣地ジャンプの軌道に
 </t>
@@ -3215,34 +3192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　条件が複数当てはまった場合は上の条件を優先して行う</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1つ前に貼った糸と、次に貼った糸との間隔が2cm以内で飛ばした角度が40度以下であれば2本の経糸の間に横糸が自動的に貼られる</t>
     <rPh sb="2" eb="3">
       <t>マエ</t>
@@ -3314,22 +3263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【基本パターンから加える追加条件】</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有限のいとの色と上書きした際の糸の色</t>
     <rPh sb="0" eb="2">
       <t>ユウゲン</t>
@@ -5689,175 +5622,6 @@
   </si>
   <si>
     <t>100m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・陣地木の差が3本以上(5:2や6:1)のAI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>劣勢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で切り替え</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ボン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>20秒に1回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ごとに現在の陣地の状況が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>劣勢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>かを判断し、それによって強さを変えていく</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジンチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>レッセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6078,372 +5842,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>近くに</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>複数の赤い木</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を
-選択した場合</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2つの木のうち、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い糸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が付いていて、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤色の糸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>との本数差が2本以下だった場合はその地点に最優先して跳ぶ(赤糸が2本以下の木に優先する)
-両方同じ場合は、一番近い木を優先</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ホンイカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ホンイカ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ユウセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い木</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を
-選択した場合</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>今いる木が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でジャンプ先が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>青い木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>あった場合、どちらか片方の木が赤い木になるまで往復する</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>オウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つの選択した木が両方青い木だった場合、一番青い糸の本数差が少ない木を優先して跳ぶ
-両方同じ場合は、一番近い木を優先</t>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ユウセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AIが木に止まってるとき、周辺の木にプレイヤーが止まった場合、
 AIと敵との高低差が小さいほど、積極的に狙うようになる
 同じ木に止まっていたり、高低差が遠い場合は狙わず基本パターンになる</t>
@@ -6507,7 +5905,170 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ーーーーー</t>
+    <t>tips内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木や糸にロックするとジャンプの予測線が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測線と敵の糸を重ねることで敵の糸を奪うことが可能</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避アクションを成功させると、敵の糸と自分の糸が重なる</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くの糸から一定の角度で跳ぶことで巣が作れる</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左トリガーを押すことで行き先を木か糸かを切り替えできる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ユキサキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左トリガーを長押しすることで敵にロックを向けることができる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに敵が止まっていると体当たりが可能</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6577,6 +6138,88 @@
         <charset val="128"/>
       </rPr>
       <t>だった場合は、ランダムでどちらかに跳ぶ
+2つとも両方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だった場合、一番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本数差が少ない木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を優先して跳ぶ
+両方同じ場合は、一番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>近い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を優先
 もし近くに木がなかったら、十字のいずれか一方向に1秒間ランダム移動
 移動後0.5秒間その場で停止して木を探す
 移動してもなかった場合、ジャンプ範囲内で一番近くの</t>
@@ -6599,7 +6242,69 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>を選択しジャンプする
+      <t>を2つ選択
+2つの木のうち、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が付いていて、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤色の糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>との本数差が2本以下だった場合はその地点に最優先して跳ぶ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤糸が2本以下の木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に優先する)
+両方同じ場合は、一番近い木を優先
 その場合でもジャンプができなかった場合は、</t>
     </r>
     <r>
@@ -6685,281 +6390,71 @@
     <rPh sb="121" eb="122">
       <t>ト</t>
     </rPh>
-    <rPh sb="127" eb="128">
+    <rPh sb="181" eb="182">
       <t>チカ</t>
     </rPh>
-    <rPh sb="130" eb="131">
+    <rPh sb="184" eb="185">
       <t>キ</t>
     </rPh>
-    <rPh sb="159" eb="161">
+    <rPh sb="213" eb="215">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="161" eb="162">
+    <rPh sb="215" eb="216">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="165" eb="167">
+    <rPh sb="219" eb="221">
       <t>ビョウカン</t>
     </rPh>
-    <rPh sb="169" eb="170">
+    <rPh sb="223" eb="224">
       <t>バ</t>
     </rPh>
-    <rPh sb="171" eb="173">
+    <rPh sb="225" eb="227">
       <t>テイシ</t>
     </rPh>
-    <rPh sb="175" eb="176">
+    <rPh sb="229" eb="230">
       <t>キ</t>
     </rPh>
-    <rPh sb="177" eb="178">
+    <rPh sb="231" eb="232">
       <t>サガ</t>
     </rPh>
-    <rPh sb="181" eb="183">
+    <rPh sb="235" eb="237">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="190" eb="192">
+    <rPh sb="244" eb="246">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="197" eb="200">
+    <rPh sb="251" eb="254">
       <t>ハンイナイ</t>
     </rPh>
-    <rPh sb="201" eb="203">
+    <rPh sb="255" eb="257">
       <t>イチバン</t>
     </rPh>
-    <rPh sb="203" eb="204">
+    <rPh sb="257" eb="258">
       <t>チカ</t>
     </rPh>
-    <rPh sb="206" eb="207">
+    <rPh sb="260" eb="261">
       <t>アカ</t>
     </rPh>
-    <rPh sb="208" eb="209">
+    <rPh sb="262" eb="263">
       <t>キ</t>
     </rPh>
-    <rPh sb="210" eb="212">
+    <rPh sb="266" eb="268">
       <t>センタク</t>
     </rPh>
-    <rPh sb="222" eb="224">
+    <rPh sb="356" eb="358">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="237" eb="239">
+    <rPh sb="371" eb="373">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="243" eb="244">
+    <rPh sb="377" eb="378">
       <t>マエ</t>
     </rPh>
-    <rPh sb="245" eb="246">
+    <rPh sb="379" eb="380">
       <t>ト</t>
     </rPh>
-    <rPh sb="248" eb="249">
+    <rPh sb="382" eb="383">
       <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>近くの木にジャンプ
-ステージ全体で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤い木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>についている糸の本数が最も少ない場所を選択する
-そこまでの最短距離を決めてジャンプする
-着地後2秒停止
-30%の確率で、停止後十字のいずれか一方向に1秒間ランダム移動する(移動すると巣が作れない幅になる)
-その後、ジャンプ範囲内で、自分の止まってる木以外ので</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤い糸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の本数差が少ない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を2つ選び、その中で一番本数差が小さい木を優先的に跳ぶ。
-この時、巣を作りながらジャンプするため、跳ぶ行き先の高低差は水平を0度とした場合+-45度までとする</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>サイタンキョリ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="132" eb="135">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="183" eb="186">
-      <t>ユウセンテキ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="213" eb="216">
-      <t>ユキサキ</t>
-    </rPh>
-    <rPh sb="217" eb="220">
-      <t>コウテイサ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>スイヘイ</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="229" eb="231">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7030,7 +6525,172 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>まで向かう</t>
+      <t>まで向かう
+到着して1秒停止、ジャンプ範囲内で一番近くの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択してジャンプする
+↑のように今いる木が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でジャンプ先も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あった場合、どちらか片方の木が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になるまでその2本を往復する。
+ジャンプ範囲内に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がなかったら、一番近くの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を選択しジャンプする
+跳ぶ前の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">になるまで往復する。
+</t>
     </r>
     <rPh sb="30" eb="32">
       <t>ジテン</t>
@@ -7059,109 +6719,482 @@
     <rPh sb="57" eb="58">
       <t>ト</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="65" eb="67">
       <t>ゼンタイ</t>
     </rPh>
-    <rPh sb="67" eb="69">
+    <rPh sb="68" eb="70">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="72" eb="73">
+    <rPh sb="73" eb="74">
       <t>キ</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="74" eb="76">
       <t>イガイ</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="77" eb="79">
       <t>イチバン</t>
     </rPh>
-    <rPh sb="81" eb="82">
+    <rPh sb="82" eb="83">
       <t>アオ</t>
     </rPh>
-    <rPh sb="85" eb="87">
+    <rPh sb="86" eb="88">
       <t>センタク</t>
     </rPh>
-    <rPh sb="138" eb="139">
+    <rPh sb="139" eb="140">
       <t>ツク</t>
     </rPh>
-    <rPh sb="148" eb="149">
+    <rPh sb="149" eb="150">
       <t>アオ</t>
     </rPh>
-    <rPh sb="150" eb="151">
+    <rPh sb="151" eb="152">
       <t>キ</t>
     </rPh>
-    <rPh sb="153" eb="154">
+    <rPh sb="154" eb="155">
       <t>ム</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今いる木が赤い木から跳んだあとも、まだ本数差が最も少ない場合は往復するようなイメージ
-もし、選択した２つの木の糸の本数差が同じだった場合は、近い方を優先にして跳ぶ</t>
+    <rPh sb="159" eb="161">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="172" eb="175">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="258" eb="261">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="295" eb="296">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="297" eb="298">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>オウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>近くの木にジャンプ
+ステージ全体で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>についている糸の本数が最も少ない場所を選択する
+そこまでの最短距離を決めてジャンプする
+着地後2秒停止
+目的地到着後、30%の確率で、停止後十字のいずれか一方向に1秒間ランダム移動する(移動すると巣が作れない幅にする)
+その後、ジャンプ範囲内で、自分の止まってる木以外ので</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い糸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の一番本数差が小さい木を選択して跳ぶ
+もし、本数差が同じ木が複数あった場合は、近い方を優先にして跳ぶ
+↑の行動をしても、まだその木の本数差が最も少ない場合は、1つ前に戻って往復するようなイメージ
+その時、巣を作りながらジャンプするため、跳ぶ行き先の高低差は1つ前にできた糸の終点を0度とした場合+-40度までとする</t>
+    </r>
     <rPh sb="0" eb="1">
-      <t>イマ</t>
+      <t>チカ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>キ</t>
     </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>サイタンキョリ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>モクテキチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面にいる場合</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近い木まで移動する</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近い木まで移動する
+近くまで移動したらジャンプする</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・陣地木の差が3本以上(6:2や7:1)でAIは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>優勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になる</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20秒に1回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ごとに現在の陣地の状況が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>優勢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かを判断し、それによって強さを変えていく</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>オウフク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ホンスウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ト</t>
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7356,7 +7389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7459,25 +7492,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7518,12 +7538,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7540,9 +7554,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7585,9 +7596,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24458,10 +24466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24567,10 +24575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24618,8 +24626,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24651,10 +24659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24719,12 +24727,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -24757,69 +24765,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -24850,10 +24858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="46"/>
+      <c r="A1" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -24877,140 +24885,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="42"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25041,85 +25049,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -25146,64 +25154,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -25233,54 +25241,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -25310,11 +25318,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25405,10 +25413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25524,82 +25532,82 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
         <v>269</v>
-      </c>
-      <c r="E2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
         <v>270</v>
-      </c>
-      <c r="E4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
         <v>271</v>
-      </c>
-      <c r="E5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -25625,10 +25633,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -25756,17 +25764,17 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C61" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C62" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -25788,10 +25796,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25822,7 +25830,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -25832,113 +25840,77 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="370.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="244.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>312</v>
+      <c r="B12" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="20" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="20" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -25965,8 +25937,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
-        <v>239</v>
+      <c r="A1" s="26" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.4">
@@ -25977,33 +25949,33 @@
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>114</v>
@@ -26012,7 +25984,7 @@
     </row>
     <row r="31" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N31" s="5"/>
     </row>
@@ -26030,77 +26002,77 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -26125,82 +26097,82 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>286</v>
+      <c r="B2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -26227,10 +26199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26253,19 +26225,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26274,57 +26246,97 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -26352,10 +26364,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26364,47 +26376,47 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -26432,7 +26444,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>120</v>
       </c>
     </row>
@@ -26443,43 +26455,43 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -26506,7 +26518,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -26532,10 +26544,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -26550,25 +26562,25 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="31" t="s">
-        <v>295</v>
+      <c r="B5" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="30"/>
+      <c r="B8" s="28"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">

--- a/企画や仕様(統合用)/クモ仕様書(β用12月09日)AI修正.xlsx
+++ b/企画や仕様(統合用)/クモ仕様書(β用12月09日)AI修正.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="9" activeTab="20"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="9" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="319">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -7195,6 +7195,48 @@
     </rPh>
     <rPh sb="39" eb="40">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優勢時は体当たりしない</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに青い木がなかったらプレイヤーを狙う
+近くにプレイヤーがいなかったら、赤い糸に狙う</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ネラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7497,7 +7539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7554,6 +7596,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -24466,10 +24511,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24575,10 +24620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24659,10 +24704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -24765,10 +24810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -24858,10 +24903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -24885,140 +24930,140 @@
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25049,10 +25094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -25154,10 +25199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -25241,10 +25286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -25308,8 +25353,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView topLeftCell="A77" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25318,11 +25363,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25403,8 +25448,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25413,10 +25458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -25633,10 +25678,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -25796,10 +25841,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -25913,6 +25958,14 @@
         <v>313</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25927,8 +25980,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -26199,10 +26252,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26234,10 +26287,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26364,10 +26417,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -26544,10 +26597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
